--- a/medicine/Handicap/Service_universitaire_spécialisé_pour_personne_avec_autisme/Service_universitaire_spécialisé_pour_personne_avec_autisme.xlsx
+++ b/medicine/Handicap/Service_universitaire_spécialisé_pour_personne_avec_autisme/Service_universitaire_spécialisé_pour_personne_avec_autisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Service_universitaire_sp%C3%A9cialis%C3%A9_pour_personne_avec_autisme</t>
+          <t>Service_universitaire_spécialisé_pour_personne_avec_autisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Service universitaire spécialisé pour personne avec autisme (SUSA) est un système de suivi pour les étudiants avec autisme créé en septembre 1991 en Belgique, visant à permettre le suivi d'un nombre réduit d'élèves autistes durant leur scolarité[1]. La Fondation Service universitaire spécialisé pour personne avec autisme est située à l'université de Mons.
-Ce service est considéré comme un succès, car il a permis « des intégrations scolaires de plus en plus nombreuses, notamment au niveau maternel, en introduisant les stratégies de la méthodologie TEACCH dans les classes ordinaires »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Service universitaire spécialisé pour personne avec autisme (SUSA) est un système de suivi pour les étudiants avec autisme créé en septembre 1991 en Belgique, visant à permettre le suivi d'un nombre réduit d'élèves autistes durant leur scolarité. La Fondation Service universitaire spécialisé pour personne avec autisme est située à l'université de Mons.
+Ce service est considéré comme un succès, car il a permis « des intégrations scolaires de plus en plus nombreuses, notamment au niveau maternel, en introduisant les stratégies de la méthodologie TEACCH dans les classes ordinaires ».
 </t>
         </is>
       </c>
